--- a/EXCEL_advanced/Demographics.xlsx
+++ b/EXCEL_advanced/Demographics.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github samples\EXCEL_advanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7881CEEE-E4D5-4DF8-BE89-6CA4806A69A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Debby</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,6 +237,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -271,6 +289,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,21 +481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -482,7 +517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -493,7 +528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -504,7 +539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -515,7 +550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -526,7 +561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -537,7 +572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>107</v>
       </c>
@@ -548,7 +583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>108</v>
       </c>
@@ -559,7 +594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>109</v>
       </c>
@@ -570,7 +605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
@@ -581,7 +616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>111</v>
       </c>
@@ -592,7 +627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>112</v>
       </c>
@@ -603,7 +638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>113</v>
       </c>
@@ -614,7 +649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>114</v>
       </c>
@@ -625,7 +660,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>115</v>
       </c>
@@ -636,7 +671,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>116</v>
       </c>
@@ -647,7 +682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>117</v>
       </c>
@@ -658,7 +693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>118</v>
       </c>
@@ -669,7 +704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>119</v>
       </c>
@@ -680,7 +715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>120</v>
       </c>
@@ -691,7 +726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>121</v>
       </c>
@@ -702,7 +737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>122</v>
       </c>
@@ -713,7 +748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>123</v>
       </c>
@@ -724,7 +759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>124</v>
       </c>
@@ -735,7 +770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>125</v>
       </c>
@@ -746,7 +781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>126</v>
       </c>
@@ -757,7 +792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>127</v>
       </c>
@@ -768,7 +803,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>128</v>
       </c>
@@ -779,7 +814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>129</v>
       </c>
@@ -790,7 +825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>130</v>
       </c>
@@ -801,7 +836,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>131</v>
       </c>
@@ -812,7 +847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>132</v>
       </c>
@@ -823,7 +858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>133</v>
       </c>
@@ -834,7 +869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>134</v>
       </c>
@@ -845,7 +880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>135</v>
       </c>
@@ -856,7 +891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>136</v>
       </c>
@@ -867,7 +902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>137</v>
       </c>
@@ -878,7 +913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>138</v>
       </c>
@@ -889,7 +924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>139</v>
       </c>
@@ -900,7 +935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>140</v>
       </c>
@@ -911,7 +946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>141</v>
       </c>
@@ -922,7 +957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>142</v>
       </c>
@@ -933,7 +968,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>143</v>
       </c>
@@ -944,7 +979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>144</v>
       </c>
@@ -955,7 +990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>145</v>
       </c>
@@ -966,7 +1001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>146</v>
       </c>
@@ -977,7 +1012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>147</v>
       </c>
@@ -988,7 +1023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>148</v>
       </c>
@@ -999,7 +1034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>149</v>
       </c>
@@ -1010,7 +1045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>150</v>
       </c>
@@ -1021,7 +1056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>151</v>
       </c>
@@ -1032,7 +1067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>152</v>
       </c>
@@ -1043,7 +1078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>153</v>
       </c>
@@ -1054,7 +1089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>154</v>
       </c>
@@ -1065,7 +1100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>155</v>
       </c>
@@ -1076,7 +1111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>156</v>
       </c>
@@ -1087,7 +1122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>157</v>
       </c>
@@ -1098,7 +1133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>158</v>
       </c>
@@ -1109,7 +1144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>159</v>
       </c>
@@ -1120,7 +1155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>160</v>
       </c>
@@ -1131,7 +1166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>161</v>
       </c>
@@ -1142,7 +1177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>162</v>
       </c>
@@ -1153,7 +1188,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>163</v>
       </c>
@@ -1164,7 +1199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>164</v>
       </c>
@@ -1175,7 +1210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>165</v>
       </c>
@@ -1186,7 +1221,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>166</v>
       </c>
@@ -1197,7 +1232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>167</v>
       </c>
@@ -1208,7 +1243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>168</v>
       </c>
@@ -1219,7 +1254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>169</v>
       </c>
@@ -1230,7 +1265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>170</v>
       </c>
@@ -1241,7 +1276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>171</v>
       </c>
@@ -1252,7 +1287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>172</v>
       </c>
@@ -1263,7 +1298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>173</v>
       </c>
@@ -1274,7 +1309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>174</v>
       </c>
@@ -1285,7 +1320,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>175</v>
       </c>
@@ -1296,7 +1331,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>176</v>
       </c>
@@ -1307,7 +1342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>177</v>
       </c>
@@ -1318,7 +1353,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>178</v>
       </c>
@@ -1329,7 +1364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>179</v>
       </c>
@@ -1340,7 +1375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>180</v>
       </c>
@@ -1351,7 +1386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>181</v>
       </c>
@@ -1362,7 +1397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>182</v>
       </c>
@@ -1373,7 +1408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>183</v>
       </c>
@@ -1384,7 +1419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>184</v>
       </c>
@@ -1395,7 +1430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>185</v>
       </c>
@@ -1406,7 +1441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>186</v>
       </c>
@@ -1417,7 +1452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>187</v>
       </c>
@@ -1428,7 +1463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>188</v>
       </c>
@@ -1439,7 +1474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>189</v>
       </c>
@@ -1450,7 +1485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>190</v>
       </c>
@@ -1461,7 +1496,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>191</v>
       </c>
@@ -1472,7 +1507,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>192</v>
       </c>
@@ -1483,7 +1518,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>193</v>
       </c>
@@ -1494,7 +1529,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>194</v>
       </c>
@@ -1505,7 +1540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>195</v>
       </c>
@@ -1516,7 +1551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>196</v>
       </c>
@@ -1527,7 +1562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>197</v>
       </c>
@@ -1538,7 +1573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>198</v>
       </c>
@@ -1549,7 +1584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>199</v>
       </c>
@@ -1560,7 +1595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>200</v>
       </c>
@@ -1571,7 +1606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>201</v>
       </c>
@@ -1582,7 +1617,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>202</v>
       </c>
@@ -1593,7 +1628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>203</v>
       </c>
@@ -1604,7 +1639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>204</v>
       </c>
@@ -1615,7 +1650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>205</v>
       </c>
@@ -1626,7 +1661,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>206</v>
       </c>
@@ -1637,7 +1672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>207</v>
       </c>
@@ -1648,7 +1683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>208</v>
       </c>
@@ -1659,7 +1694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>209</v>
       </c>
@@ -1670,7 +1705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>210</v>
       </c>
@@ -1681,7 +1716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>211</v>
       </c>
@@ -1692,7 +1727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>212</v>
       </c>
@@ -1703,7 +1738,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>213</v>
       </c>
@@ -1714,7 +1749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>214</v>
       </c>
@@ -1725,7 +1760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>215</v>
       </c>
@@ -1736,7 +1771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>216</v>
       </c>
@@ -1747,7 +1782,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>217</v>
       </c>
@@ -1758,7 +1793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>218</v>
       </c>
@@ -1769,7 +1804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>219</v>
       </c>
@@ -1780,7 +1815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>220</v>
       </c>
@@ -1791,7 +1826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>221</v>
       </c>
@@ -1802,7 +1837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>222</v>
       </c>
@@ -1813,7 +1848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>223</v>
       </c>
@@ -1824,7 +1859,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>224</v>
       </c>
@@ -1835,7 +1870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>225</v>
       </c>
@@ -1846,7 +1881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>226</v>
       </c>
@@ -1857,7 +1892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>227</v>
       </c>
@@ -1868,7 +1903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>228</v>
       </c>
@@ -1879,7 +1914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>229</v>
       </c>
@@ -1890,7 +1925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>230</v>
       </c>
@@ -1901,7 +1936,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>231</v>
       </c>
@@ -1912,7 +1947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>232</v>
       </c>
@@ -1923,7 +1958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>233</v>
       </c>
@@ -1934,7 +1969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>234</v>
       </c>
@@ -1945,7 +1980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>235</v>
       </c>
@@ -1956,7 +1991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>236</v>
       </c>
@@ -1967,7 +2002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>237</v>
       </c>
@@ -1978,7 +2013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>238</v>
       </c>
@@ -1989,7 +2024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>239</v>
       </c>
@@ -2000,7 +2035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>240</v>
       </c>
@@ -2011,7 +2046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>241</v>
       </c>
@@ -2022,7 +2057,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>242</v>
       </c>
@@ -2033,7 +2068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>243</v>
       </c>
@@ -2044,7 +2079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>244</v>
       </c>
@@ -2055,7 +2090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>245</v>
       </c>
@@ -2066,7 +2101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>246</v>
       </c>
@@ -2077,7 +2112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>247</v>
       </c>
@@ -2088,7 +2123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>248</v>
       </c>
@@ -2099,7 +2134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>249</v>
       </c>
@@ -2110,7 +2145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>250</v>
       </c>
@@ -2121,7 +2156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>251</v>
       </c>
@@ -2132,7 +2167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>252</v>
       </c>
@@ -2143,7 +2178,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>253</v>
       </c>
@@ -2154,7 +2189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>254</v>
       </c>
@@ -2165,7 +2200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>255</v>
       </c>
@@ -2176,7 +2211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>256</v>
       </c>
@@ -2187,7 +2222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>257</v>
       </c>
@@ -2198,7 +2233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>258</v>
       </c>
@@ -2209,7 +2244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>259</v>
       </c>
@@ -2220,7 +2255,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>260</v>
       </c>
@@ -2231,7 +2266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>261</v>
       </c>
@@ -2242,7 +2277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>262</v>
       </c>
@@ -2253,7 +2288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>263</v>
       </c>
@@ -2264,7 +2299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>264</v>
       </c>
@@ -2275,7 +2310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>265</v>
       </c>
@@ -2286,7 +2321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>266</v>
       </c>
@@ -2297,7 +2332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>267</v>
       </c>
@@ -2308,7 +2343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>268</v>
       </c>
@@ -2319,7 +2354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>269</v>
       </c>
@@ -2330,7 +2365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>270</v>
       </c>
@@ -2341,7 +2376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>271</v>
       </c>
@@ -2352,7 +2387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>272</v>
       </c>
@@ -2363,7 +2398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>273</v>
       </c>
@@ -2374,7 +2409,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>274</v>
       </c>
@@ -2385,7 +2420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>275</v>
       </c>
@@ -2396,7 +2431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>276</v>
       </c>
@@ -2407,7 +2442,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>277</v>
       </c>
@@ -2418,7 +2453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>278</v>
       </c>
@@ -2429,7 +2464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>279</v>
       </c>
@@ -2440,7 +2475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>280</v>
       </c>
@@ -2451,7 +2486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>281</v>
       </c>
@@ -2462,7 +2497,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>282</v>
       </c>
@@ -2473,7 +2508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>283</v>
       </c>
@@ -2484,7 +2519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>284</v>
       </c>
@@ -2495,7 +2530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>285</v>
       </c>
@@ -2506,7 +2541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>286</v>
       </c>
@@ -2517,7 +2552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>287</v>
       </c>
@@ -2528,7 +2563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>288</v>
       </c>
@@ -2539,7 +2574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>289</v>
       </c>
@@ -2550,7 +2585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>290</v>
       </c>
@@ -2561,7 +2596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>291</v>
       </c>
@@ -2572,7 +2607,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>292</v>
       </c>
@@ -2583,7 +2618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>293</v>
       </c>
@@ -2594,7 +2629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>294</v>
       </c>
@@ -2605,7 +2640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>295</v>
       </c>
@@ -2616,7 +2651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>296</v>
       </c>
@@ -2627,7 +2662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>297</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H198">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H198">
     <sortCondition ref="A2:A198"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
